--- a/打分表/第九周小组打分.xlsx
+++ b/打分表/第九周小组打分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rjgc\zhizhang\zhizhang\打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D4C57-5AFD-411C-9039-C2A21BECC808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECFD9C-02B0-4AA9-8DCA-E7C27915063B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,10 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,7 +510,7 @@
   <dimension ref="D7:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D7" sqref="D7:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
@@ -573,21 +573,21 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>90</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>88</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>90</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -603,13 +603,13 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" t="s">
         <v>24</v>
       </c>
@@ -622,16 +622,16 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -642,10 +642,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -680,7 +680,7 @@
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
@@ -698,21 +698,21 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>95</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>85</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>93</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" t="s">
         <v>29</v>
       </c>
@@ -728,13 +728,13 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" t="s">
         <v>27</v>
       </c>
@@ -744,17 +744,17 @@
       <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -789,7 +789,7 @@
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
@@ -804,24 +804,24 @@
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>90</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>85</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <v>80</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" t="s">
         <v>32</v>
       </c>
@@ -834,16 +834,16 @@
       <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22" t="s">
         <v>27</v>
       </c>
@@ -854,20 +854,26 @@
         <v>18</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J20:J23"/>
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="M20:M23"/>
@@ -877,12 +883,6 @@
     <mergeCell ref="K14:K17"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="M14:M17"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J20:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
